--- a/data/pca/factorExposure/factorExposure_2019-04-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1309081592990069</v>
+        <v>-0.0805185211664953</v>
       </c>
       <c r="C2">
-        <v>-0.01898595690477156</v>
+        <v>0.03125685027000262</v>
       </c>
       <c r="D2">
-        <v>-0.04291148884655313</v>
+        <v>0.007612464011996642</v>
       </c>
       <c r="E2">
-        <v>-0.1010228031935024</v>
+        <v>0.04004841716455131</v>
       </c>
       <c r="F2">
-        <v>-0.09782530631821272</v>
+        <v>0.1407238835004299</v>
       </c>
       <c r="G2">
-        <v>0.04845360064068759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09615339370948976</v>
+      </c>
+      <c r="H2">
+        <v>-0.06655659788109024</v>
+      </c>
+      <c r="I2">
+        <v>-0.005383423022197312</v>
+      </c>
+      <c r="J2">
+        <v>-0.08456215732814364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2229025416508447</v>
+        <v>-0.1671061839967568</v>
       </c>
       <c r="C3">
-        <v>0.0767607969473952</v>
+        <v>0.06526223858172993</v>
       </c>
       <c r="D3">
-        <v>0.02815664317350827</v>
+        <v>-0.0526900916097001</v>
       </c>
       <c r="E3">
-        <v>-0.3166459953797437</v>
+        <v>-0.02710338581577708</v>
       </c>
       <c r="F3">
-        <v>-0.01889502242524491</v>
+        <v>0.3688781342654237</v>
       </c>
       <c r="G3">
-        <v>0.2393229178790466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.03123800227070666</v>
+      </c>
+      <c r="H3">
+        <v>-0.2705881094855856</v>
+      </c>
+      <c r="I3">
+        <v>-0.09950085427807326</v>
+      </c>
+      <c r="J3">
+        <v>-0.3136804782909141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09914643337426295</v>
+        <v>-0.07499513031168888</v>
       </c>
       <c r="C4">
-        <v>0.02372097390270044</v>
+        <v>0.022951463940239</v>
       </c>
       <c r="D4">
-        <v>-0.01801687447067711</v>
+        <v>-0.03415117180128095</v>
       </c>
       <c r="E4">
-        <v>-0.07716520075732773</v>
+        <v>0.02937456009346355</v>
       </c>
       <c r="F4">
-        <v>-0.04756565463242725</v>
+        <v>0.08599935755824469</v>
       </c>
       <c r="G4">
-        <v>0.0342611995669948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04075718567098618</v>
+      </c>
+      <c r="H4">
+        <v>-0.03015326239466573</v>
+      </c>
+      <c r="I4">
+        <v>-0.01454198747507198</v>
+      </c>
+      <c r="J4">
+        <v>-0.0691752273500134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.0177634576748103</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0009048046540526207</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.007717130120568145</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.001997618299329199</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001526888071943622</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01786625059100248</v>
+      </c>
+      <c r="H6">
+        <v>-0.001071177633742794</v>
+      </c>
+      <c r="I6">
+        <v>0.009272396082234451</v>
+      </c>
+      <c r="J6">
+        <v>-0.001318987331103186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04307814727682591</v>
+        <v>-0.03538594376192912</v>
       </c>
       <c r="C7">
-        <v>0.003353414119908913</v>
+        <v>-0.007229849081681949</v>
       </c>
       <c r="D7">
-        <v>-0.03120245428803835</v>
+        <v>-0.03943880080770704</v>
       </c>
       <c r="E7">
-        <v>-0.07339679681269314</v>
+        <v>0.0261317465296527</v>
       </c>
       <c r="F7">
-        <v>0.04226930850226231</v>
+        <v>0.05820000868875691</v>
       </c>
       <c r="G7">
-        <v>0.001908534565185681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01156136431742158</v>
+      </c>
+      <c r="H7">
+        <v>-0.04493307216467485</v>
+      </c>
+      <c r="I7">
+        <v>0.02375171099184863</v>
+      </c>
+      <c r="J7">
+        <v>-0.04361743837259486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04189126669970171</v>
+        <v>-0.03189917595825824</v>
       </c>
       <c r="C8">
-        <v>0.03789460997119978</v>
+        <v>0.02594321345461094</v>
       </c>
       <c r="D8">
-        <v>0.000525701502446292</v>
+        <v>-0.03522874371531409</v>
       </c>
       <c r="E8">
-        <v>-0.07609468786336956</v>
+        <v>0.01016912180761957</v>
       </c>
       <c r="F8">
-        <v>-0.005799762544606401</v>
+        <v>0.07837449613743001</v>
       </c>
       <c r="G8">
-        <v>0.04245530853540451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.007995966997680019</v>
+      </c>
+      <c r="H8">
+        <v>-0.05265636323707493</v>
+      </c>
+      <c r="I8">
+        <v>-0.01162634513078396</v>
+      </c>
+      <c r="J8">
+        <v>-0.07332203973756618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08711885349800801</v>
+        <v>-0.06333114542142317</v>
       </c>
       <c r="C9">
-        <v>0.02821868456872504</v>
+        <v>0.02043916407962269</v>
       </c>
       <c r="D9">
-        <v>-0.02861460514983497</v>
+        <v>-0.03851245832291813</v>
       </c>
       <c r="E9">
-        <v>-0.06954366510424922</v>
+        <v>0.03023632544244449</v>
       </c>
       <c r="F9">
-        <v>-0.03057607743275247</v>
+        <v>0.08692591600871215</v>
       </c>
       <c r="G9">
-        <v>0.04772444187286883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.03376957469607905</v>
+      </c>
+      <c r="H9">
+        <v>-0.02701305726590825</v>
+      </c>
+      <c r="I9">
+        <v>0.002698694472071377</v>
+      </c>
+      <c r="J9">
+        <v>-0.03884079372722995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.009941950205165053</v>
+        <v>-0.01479825106953263</v>
       </c>
       <c r="C10">
-        <v>-0.1613072140834733</v>
+        <v>-0.1212914614046722</v>
       </c>
       <c r="D10">
-        <v>0.01221105085355004</v>
+        <v>0.1048435590395527</v>
       </c>
       <c r="E10">
-        <v>-0.05725157121762892</v>
+        <v>-0.01925905388469506</v>
       </c>
       <c r="F10">
-        <v>-0.0134642230631607</v>
+        <v>0.06255315145372976</v>
       </c>
       <c r="G10">
-        <v>-0.009170523938040201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02071601838481179</v>
+      </c>
+      <c r="H10">
+        <v>-0.003120722953561841</v>
+      </c>
+      <c r="I10">
+        <v>-0.1131123983865559</v>
+      </c>
+      <c r="J10">
+        <v>-0.03899511457183585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05888745716430987</v>
+        <v>-0.04954032790825611</v>
       </c>
       <c r="C11">
-        <v>0.003850244666233261</v>
+        <v>0.02304897991163531</v>
       </c>
       <c r="D11">
-        <v>0.009689132639535398</v>
+        <v>-0.007780287981296512</v>
       </c>
       <c r="E11">
-        <v>-0.0406792092219235</v>
+        <v>0.005034384291012489</v>
       </c>
       <c r="F11">
-        <v>-0.005146022739966507</v>
+        <v>0.04424919039481161</v>
       </c>
       <c r="G11">
-        <v>-0.03227918373572733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.005230010039945044</v>
+      </c>
+      <c r="H11">
+        <v>-0.004364258197115528</v>
+      </c>
+      <c r="I11">
+        <v>0.02797294463816805</v>
+      </c>
+      <c r="J11">
+        <v>-0.03291682963328111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04449311225782172</v>
+        <v>-0.0451660270459373</v>
       </c>
       <c r="C12">
-        <v>0.01028497416981411</v>
+        <v>0.01640077052830688</v>
       </c>
       <c r="D12">
-        <v>0.006132512355872524</v>
+        <v>-0.01700082131032749</v>
       </c>
       <c r="E12">
-        <v>-0.03338284675610059</v>
+        <v>0.007525223031184063</v>
       </c>
       <c r="F12">
-        <v>-0.0003802647808526127</v>
+        <v>0.02382027822620073</v>
       </c>
       <c r="G12">
-        <v>-0.004973880946488738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.003078432464497349</v>
+      </c>
+      <c r="H12">
+        <v>-0.005123383550270816</v>
+      </c>
+      <c r="I12">
+        <v>0.02271358385973922</v>
+      </c>
+      <c r="J12">
+        <v>-0.01524700399303222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06251792153243631</v>
+        <v>-0.04281366746038912</v>
       </c>
       <c r="C13">
-        <v>0.01407249127741847</v>
+        <v>0.02711277314755584</v>
       </c>
       <c r="D13">
-        <v>0.01092837307983113</v>
+        <v>-0.0003409058183660774</v>
       </c>
       <c r="E13">
-        <v>-0.1096854097041102</v>
+        <v>0.00557436741303207</v>
       </c>
       <c r="F13">
-        <v>-0.02191400586862259</v>
+        <v>0.1038149172320595</v>
       </c>
       <c r="G13">
-        <v>0.01291740896838164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.01457746125732286</v>
+      </c>
+      <c r="H13">
+        <v>-0.05031442583052453</v>
+      </c>
+      <c r="I13">
+        <v>0.007843805926196866</v>
+      </c>
+      <c r="J13">
+        <v>-0.05831734491731495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03759106387777795</v>
+        <v>-0.02943056287417673</v>
       </c>
       <c r="C14">
-        <v>0.007916749553845337</v>
+        <v>0.01020458229689949</v>
       </c>
       <c r="D14">
-        <v>-0.01970143649552077</v>
+        <v>-0.01494744594546657</v>
       </c>
       <c r="E14">
-        <v>-0.01925020776124774</v>
+        <v>0.02395263068267645</v>
       </c>
       <c r="F14">
-        <v>0.002091366039366423</v>
+        <v>0.03844693819141621</v>
       </c>
       <c r="G14">
-        <v>-0.004262605368837056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01893822975922495</v>
+      </c>
+      <c r="H14">
+        <v>-0.0540916172645786</v>
+      </c>
+      <c r="I14">
+        <v>-0.004482681234942153</v>
+      </c>
+      <c r="J14">
+        <v>-0.02077924549569405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04889210780798653</v>
+        <v>-0.04359576981363607</v>
       </c>
       <c r="C16">
-        <v>0.02023440449620247</v>
+        <v>0.02642426500258749</v>
       </c>
       <c r="D16">
-        <v>0.01599366565292248</v>
+        <v>-0.0181670262604447</v>
       </c>
       <c r="E16">
-        <v>-0.03862062765807456</v>
+        <v>0.001137546358448827</v>
       </c>
       <c r="F16">
-        <v>0.001385626824129862</v>
+        <v>0.0380810163946052</v>
       </c>
       <c r="G16">
-        <v>-0.01238752456219854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.006660209177668667</v>
+      </c>
+      <c r="H16">
+        <v>-0.008992167535193446</v>
+      </c>
+      <c r="I16">
+        <v>0.02436480296913107</v>
+      </c>
+      <c r="J16">
+        <v>-0.02662232906950521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.0521861428715384</v>
+        <v>-0.04594159145990132</v>
       </c>
       <c r="C19">
-        <v>0.02420452136980479</v>
+        <v>0.02876272895252715</v>
       </c>
       <c r="D19">
-        <v>0.001511486965188781</v>
+        <v>-0.01972177063225931</v>
       </c>
       <c r="E19">
-        <v>-0.08151016745014159</v>
+        <v>0.01033699206482789</v>
       </c>
       <c r="F19">
-        <v>0.004968000890985679</v>
+        <v>0.09149822264895033</v>
       </c>
       <c r="G19">
-        <v>0.02213693210338108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.0007035987406456818</v>
+      </c>
+      <c r="H19">
+        <v>-0.0836930713334636</v>
+      </c>
+      <c r="I19">
+        <v>-0.009761287304951263</v>
+      </c>
+      <c r="J19">
+        <v>-0.05424873561730807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03792647762761974</v>
+        <v>-0.01840008853981702</v>
       </c>
       <c r="C20">
-        <v>0.03389615036555121</v>
+        <v>0.02293681915422935</v>
       </c>
       <c r="D20">
-        <v>-0.01183150784425651</v>
+        <v>-0.02628754801433295</v>
       </c>
       <c r="E20">
-        <v>-0.06467863299957706</v>
+        <v>0.01679661878971191</v>
       </c>
       <c r="F20">
-        <v>0.01505035296231835</v>
+        <v>0.07177879457194325</v>
       </c>
       <c r="G20">
-        <v>0.01303168981489835</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0005853620936348016</v>
+      </c>
+      <c r="H20">
+        <v>-0.0686077337275021</v>
+      </c>
+      <c r="I20">
+        <v>0.005182248863304946</v>
+      </c>
+      <c r="J20">
+        <v>-0.07802498507503486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.0396548337747849</v>
+        <v>-0.0215051297189008</v>
       </c>
       <c r="C21">
-        <v>0.01450568436790942</v>
+        <v>0.01341719391127342</v>
       </c>
       <c r="D21">
-        <v>0.002909116612163436</v>
+        <v>-0.0296844290630513</v>
       </c>
       <c r="E21">
-        <v>-0.08883044243192931</v>
+        <v>-0.0003063137322749673</v>
       </c>
       <c r="F21">
-        <v>-0.04807269256626832</v>
+        <v>0.07983956656333889</v>
       </c>
       <c r="G21">
-        <v>0.003379109204114911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02853450962128398</v>
+      </c>
+      <c r="H21">
+        <v>-0.03205162778067971</v>
+      </c>
+      <c r="I21">
+        <v>0.0161127868748917</v>
+      </c>
+      <c r="J21">
+        <v>-0.0212639494484126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04949968963860064</v>
+        <v>-0.04219957019123795</v>
       </c>
       <c r="C24">
-        <v>0.01268494858168279</v>
+        <v>0.01742916728375554</v>
       </c>
       <c r="D24">
-        <v>0.00435078470864249</v>
+        <v>-0.01124760103705439</v>
       </c>
       <c r="E24">
-        <v>-0.04757825842741127</v>
+        <v>0.006249366003283596</v>
       </c>
       <c r="F24">
-        <v>-0.0004000755861617871</v>
+        <v>0.04444568768969494</v>
       </c>
       <c r="G24">
-        <v>-0.008716810190730747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.006872692723074556</v>
+      </c>
+      <c r="H24">
+        <v>-0.007996391723676499</v>
+      </c>
+      <c r="I24">
+        <v>0.02496845712001056</v>
+      </c>
+      <c r="J24">
+        <v>-0.03352460187692761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.0494172179276285</v>
+        <v>-0.04370699615934522</v>
       </c>
       <c r="C25">
-        <v>0.002845643839121154</v>
+        <v>0.01795016018926718</v>
       </c>
       <c r="D25">
-        <v>0.00634934460232622</v>
+        <v>-0.01065167054156993</v>
       </c>
       <c r="E25">
-        <v>-0.04540230384042461</v>
+        <v>0.004173484141154352</v>
       </c>
       <c r="F25">
-        <v>-0.008295278652933986</v>
+        <v>0.0486908336613002</v>
       </c>
       <c r="G25">
-        <v>-0.01790954788795654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0001622753881040928</v>
+      </c>
+      <c r="H25">
+        <v>-0.002923020925573517</v>
+      </c>
+      <c r="I25">
+        <v>0.02357491175610348</v>
+      </c>
+      <c r="J25">
+        <v>-0.02365870245181815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.008880499211007385</v>
+        <v>-0.013575255518753</v>
       </c>
       <c r="C26">
-        <v>0.01631258997769741</v>
+        <v>0.01625929546264959</v>
       </c>
       <c r="D26">
-        <v>-0.003216892424006768</v>
+        <v>-0.008176414292562778</v>
       </c>
       <c r="E26">
-        <v>-0.04994366276119707</v>
+        <v>-0.001875479771091069</v>
       </c>
       <c r="F26">
-        <v>-0.01731512875999656</v>
+        <v>0.05367804877314342</v>
       </c>
       <c r="G26">
-        <v>-0.00594357997820522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01115291507820484</v>
+      </c>
+      <c r="H26">
+        <v>-0.03185509888187067</v>
+      </c>
+      <c r="I26">
+        <v>0.01979898981441597</v>
+      </c>
+      <c r="J26">
+        <v>-0.03591223512033908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1109225668303211</v>
+        <v>-0.08173088940506344</v>
       </c>
       <c r="C27">
-        <v>0.01454769272777617</v>
+        <v>0.01916323195291771</v>
       </c>
       <c r="D27">
-        <v>-0.0187834011121422</v>
+        <v>-0.01711852752044189</v>
       </c>
       <c r="E27">
-        <v>-0.1121817345759797</v>
+        <v>0.03038119763212051</v>
       </c>
       <c r="F27">
-        <v>-0.01802719263432333</v>
+        <v>0.08084571292108271</v>
       </c>
       <c r="G27">
-        <v>0.01529617828748078</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01000371947519749</v>
+      </c>
+      <c r="H27">
+        <v>-0.01095293129446135</v>
+      </c>
+      <c r="I27">
+        <v>0.002271659716791905</v>
+      </c>
+      <c r="J27">
+        <v>-0.04771020874700133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.01097592506347102</v>
+        <v>-0.02755203864933727</v>
       </c>
       <c r="C28">
-        <v>-0.2463097455515873</v>
+        <v>-0.1848205269446078</v>
       </c>
       <c r="D28">
-        <v>0.02024803430101844</v>
+        <v>0.1466183739001508</v>
       </c>
       <c r="E28">
-        <v>-0.03056188329515874</v>
+        <v>-0.0281320206874223</v>
       </c>
       <c r="F28">
-        <v>-0.005507837288473569</v>
+        <v>0.04415915506470394</v>
       </c>
       <c r="G28">
-        <v>0.01245036568899474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02450499113545393</v>
+      </c>
+      <c r="H28">
+        <v>0.006818913838458769</v>
+      </c>
+      <c r="I28">
+        <v>-0.1562977511039801</v>
+      </c>
+      <c r="J28">
+        <v>-0.05744313339141557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0216405809954319</v>
+        <v>-0.02218677832935519</v>
       </c>
       <c r="C29">
-        <v>0.01585185699876467</v>
+        <v>0.009900643293184288</v>
       </c>
       <c r="D29">
-        <v>-0.02137833143645943</v>
+        <v>-0.01962408666366858</v>
       </c>
       <c r="E29">
-        <v>-0.02632614858899066</v>
+        <v>0.02318712386204388</v>
       </c>
       <c r="F29">
-        <v>-0.01013579566806272</v>
+        <v>0.03848280107138606</v>
       </c>
       <c r="G29">
-        <v>-0.002528223959602029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02187484822845643</v>
+      </c>
+      <c r="H29">
+        <v>-0.05189847840976736</v>
+      </c>
+      <c r="I29">
+        <v>0.001589347866761426</v>
+      </c>
+      <c r="J29">
+        <v>-0.01089633607733841</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1083172389677943</v>
+        <v>-0.09777883413575851</v>
       </c>
       <c r="C30">
-        <v>0.004854738021945967</v>
+        <v>0.05150494922337078</v>
       </c>
       <c r="D30">
-        <v>-0.01756583431907165</v>
+        <v>0.0114989583582335</v>
       </c>
       <c r="E30">
-        <v>-0.1127722275056904</v>
+        <v>0.02903767425316853</v>
       </c>
       <c r="F30">
-        <v>-0.02408208693293615</v>
+        <v>0.108832734465937</v>
       </c>
       <c r="G30">
-        <v>-0.06781608207654308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.005661892364529927</v>
+      </c>
+      <c r="H30">
+        <v>-0.00715726705616308</v>
+      </c>
+      <c r="I30">
+        <v>0.0285062069280597</v>
+      </c>
+      <c r="J30">
+        <v>-0.01714211442032829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05843724734279021</v>
+        <v>-0.06112489917272264</v>
       </c>
       <c r="C31">
-        <v>0.01317783253991821</v>
+        <v>0.02339392769479614</v>
       </c>
       <c r="D31">
-        <v>-0.01560165039201898</v>
+        <v>-0.003006026155351704</v>
       </c>
       <c r="E31">
-        <v>0.01938573310110243</v>
+        <v>0.01766521644990102</v>
       </c>
       <c r="F31">
-        <v>-0.008955514678721502</v>
+        <v>0.005782417800100948</v>
       </c>
       <c r="G31">
-        <v>-0.03451697892597664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03631901686294105</v>
+      </c>
+      <c r="H31">
+        <v>-0.03642990645620702</v>
+      </c>
+      <c r="I31">
+        <v>-0.002856995301232052</v>
+      </c>
+      <c r="J31">
+        <v>-0.01763868757001955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.07173438511492156</v>
+        <v>-0.04837911058948339</v>
       </c>
       <c r="C32">
-        <v>0.02427791492352247</v>
+        <v>0.03012260064031652</v>
       </c>
       <c r="D32">
-        <v>-0.01021489278412949</v>
+        <v>-0.04033557181608814</v>
       </c>
       <c r="E32">
-        <v>-0.1120977318318637</v>
+        <v>0.02459342935756077</v>
       </c>
       <c r="F32">
-        <v>0.006279350404941401</v>
+        <v>0.0952562765598418</v>
       </c>
       <c r="G32">
-        <v>-0.01020207885113527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.003418537708700947</v>
+      </c>
+      <c r="H32">
+        <v>-0.03943697614015108</v>
+      </c>
+      <c r="I32">
+        <v>-0.002892774470520949</v>
+      </c>
+      <c r="J32">
+        <v>-0.04476016256607627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06884532583486783</v>
+        <v>-0.05842025423786596</v>
       </c>
       <c r="C33">
-        <v>0.03010845578349225</v>
+        <v>0.04835117860979087</v>
       </c>
       <c r="D33">
-        <v>-0.007611099749397035</v>
+        <v>-0.01222397625687047</v>
       </c>
       <c r="E33">
-        <v>-0.07462437816560684</v>
+        <v>0.004113589929223855</v>
       </c>
       <c r="F33">
-        <v>-0.04602489004484521</v>
+        <v>0.08387655452795117</v>
       </c>
       <c r="G33">
-        <v>-0.003996665531318472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02571212569602811</v>
+      </c>
+      <c r="H33">
+        <v>-0.0415346954534731</v>
+      </c>
+      <c r="I33">
+        <v>0.0289046450428117</v>
+      </c>
+      <c r="J33">
+        <v>-0.04334144591949322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04891373239862204</v>
+        <v>-0.04454444353103775</v>
       </c>
       <c r="C34">
-        <v>0.01262903651342001</v>
+        <v>0.01964338309941454</v>
       </c>
       <c r="D34">
-        <v>0.006204129974605889</v>
+        <v>-0.01878626637591132</v>
       </c>
       <c r="E34">
-        <v>-0.02587778950165812</v>
+        <v>0.01184204669212911</v>
       </c>
       <c r="F34">
-        <v>0.003932962926596999</v>
+        <v>0.03720917345295574</v>
       </c>
       <c r="G34">
-        <v>-0.00972761342498348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001128585484299243</v>
+      </c>
+      <c r="H34">
+        <v>-0.01366084668561181</v>
+      </c>
+      <c r="I34">
+        <v>0.02207339717345474</v>
+      </c>
+      <c r="J34">
+        <v>-0.02091260685454075</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01298842761776012</v>
+        <v>-0.01483019613114037</v>
       </c>
       <c r="C36">
-        <v>-0.01013045860318782</v>
+        <v>-0.0009297506693450216</v>
       </c>
       <c r="D36">
-        <v>-0.005706661559799171</v>
+        <v>-0.004703605734929066</v>
       </c>
       <c r="E36">
-        <v>-0.02220140103877274</v>
+        <v>0.008012088571663724</v>
       </c>
       <c r="F36">
-        <v>-0.006740727453503154</v>
+        <v>0.02981340073933796</v>
       </c>
       <c r="G36">
-        <v>-0.00970948480140355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01726180608763797</v>
+      </c>
+      <c r="H36">
+        <v>-0.03081268048748695</v>
+      </c>
+      <c r="I36">
+        <v>0.004923670264133607</v>
+      </c>
+      <c r="J36">
+        <v>-0.004347048376243849</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05656227051015197</v>
+        <v>-0.0329844206923138</v>
       </c>
       <c r="C38">
-        <v>0.003450809179668286</v>
+        <v>0.007121011242727709</v>
       </c>
       <c r="D38">
-        <v>-0.02405174118137681</v>
+        <v>-0.008215893316427011</v>
       </c>
       <c r="E38">
-        <v>-0.03519112384917358</v>
+        <v>0.008496093158702854</v>
       </c>
       <c r="F38">
-        <v>-0.00920157226266818</v>
+        <v>0.05299957708115598</v>
       </c>
       <c r="G38">
-        <v>0.03827483087135896</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02668063197642464</v>
+      </c>
+      <c r="H38">
+        <v>-0.01592014733411408</v>
+      </c>
+      <c r="I38">
+        <v>0.009186910022472719</v>
+      </c>
+      <c r="J38">
+        <v>0.0056083434463726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07661212441698617</v>
+        <v>-0.05826738137482858</v>
       </c>
       <c r="C39">
-        <v>0.009630031273287603</v>
+        <v>0.0339730437241501</v>
       </c>
       <c r="D39">
-        <v>-0.0004275941008983638</v>
+        <v>-0.01799771043262479</v>
       </c>
       <c r="E39">
-        <v>-0.04402485290385438</v>
+        <v>0.01368412202792389</v>
       </c>
       <c r="F39">
-        <v>-0.01957005479064429</v>
+        <v>0.06015774793564915</v>
       </c>
       <c r="G39">
-        <v>-0.01957500890380412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01398118700003297</v>
+      </c>
+      <c r="H39">
+        <v>-0.003662740476407843</v>
+      </c>
+      <c r="I39">
+        <v>0.04667657840318394</v>
+      </c>
+      <c r="J39">
+        <v>-0.02677275949227844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07255588018573832</v>
+        <v>-0.0571736681502947</v>
       </c>
       <c r="C40">
-        <v>0.02536425567674656</v>
+        <v>0.04025140927435431</v>
       </c>
       <c r="D40">
-        <v>-0.0009690259796010031</v>
+        <v>-0.003186182568875971</v>
       </c>
       <c r="E40">
-        <v>-0.1056419831895755</v>
+        <v>0.01826752718571235</v>
       </c>
       <c r="F40">
-        <v>-0.03851712784166613</v>
+        <v>0.102845179632306</v>
       </c>
       <c r="G40">
-        <v>0.07062560518970713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01681255048652132</v>
+      </c>
+      <c r="H40">
+        <v>-0.05709243580219837</v>
+      </c>
+      <c r="I40">
+        <v>0.02626144071928966</v>
+      </c>
+      <c r="J40">
+        <v>-0.1085048965349208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.00378516252558599</v>
+        <v>-0.002033241532272628</v>
       </c>
       <c r="C41">
-        <v>0.01359411155410587</v>
+        <v>0.009284253684103475</v>
       </c>
       <c r="D41">
-        <v>-0.01682904086962663</v>
+        <v>-0.00805947817949533</v>
       </c>
       <c r="E41">
-        <v>-0.01194801902829466</v>
+        <v>0.005711491019057525</v>
       </c>
       <c r="F41">
-        <v>-0.026036810876229</v>
+        <v>0.0164198937678561</v>
       </c>
       <c r="G41">
-        <v>-0.001689334794213365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03044700746109712</v>
+      </c>
+      <c r="H41">
+        <v>-0.03865805417361662</v>
+      </c>
+      <c r="I41">
+        <v>-0.01382768515270679</v>
+      </c>
+      <c r="J41">
+        <v>-0.02141069816163048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1299412985820477</v>
+        <v>-0.2249813445253925</v>
       </c>
       <c r="C42">
-        <v>0.1813956826326519</v>
+        <v>0.1639871910963978</v>
       </c>
       <c r="D42">
-        <v>0.9361196674848451</v>
+        <v>-0.03779361960166556</v>
       </c>
       <c r="E42">
-        <v>0.03232242749134451</v>
+        <v>-0.9321019081753606</v>
       </c>
       <c r="F42">
-        <v>0.01323135613721124</v>
+        <v>-0.1507167972011156</v>
       </c>
       <c r="G42">
-        <v>-0.08089836115951174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.007548051821553843</v>
+      </c>
+      <c r="H42">
+        <v>0.002092829239945583</v>
+      </c>
+      <c r="I42">
+        <v>-0.0365617915001798</v>
+      </c>
+      <c r="J42">
+        <v>-0.0350979869138996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007865081875275922</v>
+        <v>-0.005066200189556325</v>
       </c>
       <c r="C43">
-        <v>0.01462951049958621</v>
+        <v>0.01265328150434539</v>
       </c>
       <c r="D43">
-        <v>-0.01548346590945147</v>
+        <v>-0.007158389774157627</v>
       </c>
       <c r="E43">
-        <v>-0.03241725854449318</v>
+        <v>0.006334206626058901</v>
       </c>
       <c r="F43">
-        <v>-0.002968532980182205</v>
+        <v>0.02963266576166378</v>
       </c>
       <c r="G43">
-        <v>-0.008077239259558458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0145178601143223</v>
+      </c>
+      <c r="H43">
+        <v>-0.03554127711344827</v>
+      </c>
+      <c r="I43">
+        <v>-0.004015061893463832</v>
+      </c>
+      <c r="J43">
+        <v>-0.02801011439456881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04015132424042659</v>
+        <v>-0.0308174437017813</v>
       </c>
       <c r="C44">
-        <v>0.03582237698705749</v>
+        <v>0.02772648666219576</v>
       </c>
       <c r="D44">
-        <v>-0.008262605400803598</v>
+        <v>-0.022940821151421</v>
       </c>
       <c r="E44">
-        <v>-0.1104349326065613</v>
+        <v>0.005135324788537819</v>
       </c>
       <c r="F44">
-        <v>-0.08497780649244806</v>
+        <v>0.1205371336632611</v>
       </c>
       <c r="G44">
-        <v>0.0300632487457015</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04701397030695044</v>
+      </c>
+      <c r="H44">
+        <v>-0.1078560988326219</v>
+      </c>
+      <c r="I44">
+        <v>-0.01616526840659247</v>
+      </c>
+      <c r="J44">
+        <v>-0.04265221388469428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02485064947604395</v>
+        <v>-0.02408800969858383</v>
       </c>
       <c r="C46">
-        <v>0.01271070470999028</v>
+        <v>0.0226260461454172</v>
       </c>
       <c r="D46">
-        <v>-0.02174712625875819</v>
+        <v>-0.01394734544530352</v>
       </c>
       <c r="E46">
-        <v>-0.02179721562385633</v>
+        <v>0.02005481879352931</v>
       </c>
       <c r="F46">
-        <v>-0.01887538538270164</v>
+        <v>0.04741622088490186</v>
       </c>
       <c r="G46">
-        <v>-0.003354888682852408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01954479698573831</v>
+      </c>
+      <c r="H46">
+        <v>-0.05711019227190443</v>
+      </c>
+      <c r="I46">
+        <v>-0.002064249021015889</v>
+      </c>
+      <c r="J46">
+        <v>-0.0295549309951333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08481126679607494</v>
+        <v>-0.09044081490990633</v>
       </c>
       <c r="C47">
-        <v>0.007950797886293177</v>
+        <v>0.02000515019768733</v>
       </c>
       <c r="D47">
-        <v>-0.0184657899535836</v>
+        <v>-0.005964732635800192</v>
       </c>
       <c r="E47">
-        <v>0.02190477441662287</v>
+        <v>0.02377252417963554</v>
       </c>
       <c r="F47">
-        <v>-0.006909368619147141</v>
+        <v>-0.004213723473418645</v>
       </c>
       <c r="G47">
-        <v>-0.01567208449710672</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0331109842798465</v>
+      </c>
+      <c r="H47">
+        <v>-0.05840658455285676</v>
+      </c>
+      <c r="I47">
+        <v>-0.004958127261448506</v>
+      </c>
+      <c r="J47">
+        <v>-0.02602713090125106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01557957443258569</v>
+        <v>-0.01724057914382488</v>
       </c>
       <c r="C48">
-        <v>0.01650467676286175</v>
+        <v>0.01486377774649176</v>
       </c>
       <c r="D48">
-        <v>-0.01468424604440091</v>
+        <v>-0.01355897821768335</v>
       </c>
       <c r="E48">
-        <v>-0.03335154821035934</v>
+        <v>0.009842535844544826</v>
       </c>
       <c r="F48">
-        <v>-0.01489588843381375</v>
+        <v>0.03462107408567576</v>
       </c>
       <c r="G48">
-        <v>0.00151689066310708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01113096345661031</v>
+      </c>
+      <c r="H48">
+        <v>-0.02427762262436892</v>
+      </c>
+      <c r="I48">
+        <v>-0.005483251446081862</v>
+      </c>
+      <c r="J48">
+        <v>-0.01773005122067444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08431432502488799</v>
+        <v>-0.08699902928797898</v>
       </c>
       <c r="C50">
-        <v>0.02635570422252279</v>
+        <v>0.02251893199198574</v>
       </c>
       <c r="D50">
-        <v>-0.02743292723061761</v>
+        <v>-0.02802410125835165</v>
       </c>
       <c r="E50">
-        <v>0.01823620961943111</v>
+        <v>0.02044023541683408</v>
       </c>
       <c r="F50">
-        <v>-0.003553296814823233</v>
+        <v>0.002704886157610489</v>
       </c>
       <c r="G50">
-        <v>-0.02879862623219825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.002375354805588725</v>
+      </c>
+      <c r="H50">
+        <v>-0.04381113190677736</v>
+      </c>
+      <c r="I50">
+        <v>0.01512365752246165</v>
+      </c>
+      <c r="J50">
+        <v>0.005559090257669647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.0695744519910208</v>
+        <v>-0.04709595034477669</v>
       </c>
       <c r="C51">
-        <v>-0.02418160699092327</v>
+        <v>0.005210885519094345</v>
       </c>
       <c r="D51">
-        <v>0.003853684591837112</v>
+        <v>0.01439940893864263</v>
       </c>
       <c r="E51">
-        <v>-0.07573264795932637</v>
+        <v>0.008260077986502089</v>
       </c>
       <c r="F51">
-        <v>-0.05200500894790208</v>
+        <v>0.09479208985261443</v>
       </c>
       <c r="G51">
-        <v>-0.05855227669264896</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04807557524602249</v>
+      </c>
+      <c r="H51">
+        <v>-0.0575931381800885</v>
+      </c>
+      <c r="I51">
+        <v>-0.008147849279233082</v>
+      </c>
+      <c r="J51">
+        <v>-0.05146238109503309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1468789515959421</v>
+        <v>-0.1280987401860094</v>
       </c>
       <c r="C53">
-        <v>0.008272173805281132</v>
+        <v>0.03290497187106522</v>
       </c>
       <c r="D53">
-        <v>-0.04041863837981984</v>
+        <v>-0.01282711152125679</v>
       </c>
       <c r="E53">
-        <v>0.03969697127279884</v>
+        <v>0.04643811643683932</v>
       </c>
       <c r="F53">
-        <v>0.01740614776710805</v>
+        <v>-0.03554039142181897</v>
       </c>
       <c r="G53">
-        <v>-0.03114673515530231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.01986525366986666</v>
+      </c>
+      <c r="H53">
+        <v>-0.002221973779264117</v>
+      </c>
+      <c r="I53">
+        <v>-0.02564470479245676</v>
+      </c>
+      <c r="J53">
+        <v>-0.04421397755800876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02711742438851318</v>
+        <v>-0.02290945796314276</v>
       </c>
       <c r="C54">
-        <v>-0.004849468226372304</v>
+        <v>0.003629228357024358</v>
       </c>
       <c r="D54">
-        <v>-0.02748796917839992</v>
+        <v>-0.00954006874815407</v>
       </c>
       <c r="E54">
-        <v>-0.0308349259067925</v>
+        <v>0.02609445834204387</v>
       </c>
       <c r="F54">
-        <v>-0.04236653258354944</v>
+        <v>0.04205507988552357</v>
       </c>
       <c r="G54">
-        <v>0.009900604733093118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0392848308133175</v>
+      </c>
+      <c r="H54">
+        <v>-0.05291132764301779</v>
+      </c>
+      <c r="I54">
+        <v>-0.02920946632191041</v>
+      </c>
+      <c r="J54">
+        <v>-0.006166943300830657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09928352397265316</v>
+        <v>-0.1026490501593864</v>
       </c>
       <c r="C55">
-        <v>-0.004226593115136532</v>
+        <v>0.01016058036323489</v>
       </c>
       <c r="D55">
-        <v>-0.03750698630746515</v>
+        <v>-0.02106395979989416</v>
       </c>
       <c r="E55">
-        <v>0.007076120293269846</v>
+        <v>0.03300987373215526</v>
       </c>
       <c r="F55">
-        <v>0.03454424999409646</v>
+        <v>-0.02425833940021897</v>
       </c>
       <c r="G55">
-        <v>-0.001050120804065403</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.00887868889183285</v>
+      </c>
+      <c r="H55">
+        <v>-0.0185637991397015</v>
+      </c>
+      <c r="I55">
+        <v>-0.005307351162227463</v>
+      </c>
+      <c r="J55">
+        <v>-0.03743514881437832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1795068566449539</v>
+        <v>-0.1688267702164466</v>
       </c>
       <c r="C56">
-        <v>-0.01570977708625799</v>
+        <v>0.01340985402827231</v>
       </c>
       <c r="D56">
-        <v>-0.07622008921726174</v>
+        <v>-0.009266975350000652</v>
       </c>
       <c r="E56">
-        <v>0.07457323212330323</v>
+        <v>0.08490531926772873</v>
       </c>
       <c r="F56">
-        <v>0.072237437465815</v>
+        <v>-0.07635876852129857</v>
       </c>
       <c r="G56">
-        <v>-0.01088835743654014</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02018213589003276</v>
+      </c>
+      <c r="H56">
+        <v>0.04311322427728724</v>
+      </c>
+      <c r="I56">
+        <v>-0.009064539819487094</v>
+      </c>
+      <c r="J56">
+        <v>-0.05348332861243651</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09169139597496434</v>
+        <v>-0.0712178895027248</v>
       </c>
       <c r="C57">
-        <v>0.02186538524189792</v>
+        <v>0.03271198054125679</v>
       </c>
       <c r="D57">
-        <v>-0.02149651881411356</v>
+        <v>-0.003712718115721106</v>
       </c>
       <c r="E57">
-        <v>-0.06204386560420817</v>
+        <v>0.01232557696451713</v>
       </c>
       <c r="F57">
-        <v>-0.02036671515676832</v>
+        <v>0.06842976637552604</v>
       </c>
       <c r="G57">
-        <v>0.01161758029414918</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.01172165097550413</v>
+      </c>
+      <c r="H57">
+        <v>-0.03191927892115722</v>
+      </c>
+      <c r="I57">
+        <v>0.01998959603598164</v>
+      </c>
+      <c r="J57">
+        <v>-0.03764129874855252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1724358927651114</v>
+        <v>-0.2025096235643117</v>
       </c>
       <c r="C58">
-        <v>-0.005505164075618157</v>
+        <v>0.09099180884684355</v>
       </c>
       <c r="D58">
-        <v>0.04159262670384729</v>
+        <v>0.04327935517856628</v>
       </c>
       <c r="E58">
-        <v>-0.1407927433502141</v>
+        <v>-0.01127937716036101</v>
       </c>
       <c r="F58">
-        <v>0.05540467667858219</v>
+        <v>0.2287086355371334</v>
       </c>
       <c r="G58">
-        <v>0.09649032227589478</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1858734540015292</v>
+      </c>
+      <c r="H58">
+        <v>-0.380954558774071</v>
+      </c>
+      <c r="I58">
+        <v>-0.1423804193971859</v>
+      </c>
+      <c r="J58">
+        <v>0.7409830026500603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.001750918131781998</v>
+        <v>-0.03079731104068474</v>
       </c>
       <c r="C59">
-        <v>-0.2047409665550098</v>
+        <v>-0.1466317309516561</v>
       </c>
       <c r="D59">
-        <v>-0.009414647002424083</v>
+        <v>0.1392257662815021</v>
       </c>
       <c r="E59">
-        <v>-0.04910938524848976</v>
+        <v>0.004728788594152445</v>
       </c>
       <c r="F59">
-        <v>-0.005826751283168068</v>
+        <v>0.06108330274991179</v>
       </c>
       <c r="G59">
-        <v>-0.001928197361572748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002475806156992745</v>
+      </c>
+      <c r="H59">
+        <v>0.0135648627984569</v>
+      </c>
+      <c r="I59">
+        <v>-0.06525242444829533</v>
+      </c>
+      <c r="J59">
+        <v>-0.01465255053325806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1844213855387458</v>
+        <v>-0.1804982449907138</v>
       </c>
       <c r="C60">
-        <v>-0.1202292955597113</v>
+        <v>-0.01844142602912897</v>
       </c>
       <c r="D60">
-        <v>-0.02531592772211423</v>
+        <v>0.0791841916328532</v>
       </c>
       <c r="E60">
-        <v>-0.1723562121545237</v>
+        <v>0.01447167517158152</v>
       </c>
       <c r="F60">
-        <v>-0.05438281617933331</v>
+        <v>0.19878336340565</v>
       </c>
       <c r="G60">
-        <v>-0.09857137922174619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0579056723323378</v>
+      </c>
+      <c r="H60">
+        <v>0.2665076494380205</v>
+      </c>
+      <c r="I60">
+        <v>0.08205499693590339</v>
+      </c>
+      <c r="J60">
+        <v>0.02902996872046575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04558686899453938</v>
+        <v>-0.0378831270166138</v>
       </c>
       <c r="C61">
-        <v>-0.003272889548027332</v>
+        <v>0.01529856599479852</v>
       </c>
       <c r="D61">
-        <v>0.008949331193112619</v>
+        <v>-0.01156963773084717</v>
       </c>
       <c r="E61">
-        <v>-0.04851005240276326</v>
+        <v>0.001726456452870598</v>
       </c>
       <c r="F61">
-        <v>-0.02157501342307793</v>
+        <v>0.04810982539554337</v>
       </c>
       <c r="G61">
-        <v>-0.009289401184913879</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01220893993179078</v>
+      </c>
+      <c r="H61">
+        <v>0.003118674613397023</v>
+      </c>
+      <c r="I61">
+        <v>0.04492163033999872</v>
+      </c>
+      <c r="J61">
+        <v>-0.006681396066094437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04657481705665111</v>
+        <v>-0.03135385596637601</v>
       </c>
       <c r="C63">
-        <v>-0.007957770169592843</v>
+        <v>0.01390521046089374</v>
       </c>
       <c r="D63">
-        <v>-0.01358593428205017</v>
+        <v>-0.00789396049644559</v>
       </c>
       <c r="E63">
-        <v>-0.03729742079329581</v>
+        <v>0.01310673085705778</v>
       </c>
       <c r="F63">
-        <v>-0.00443398709441059</v>
+        <v>0.0322033455196095</v>
       </c>
       <c r="G63">
-        <v>-0.001864734375164059</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.008062143426909281</v>
+      </c>
+      <c r="H63">
+        <v>-0.04112758573927951</v>
+      </c>
+      <c r="I63">
+        <v>-0.01207201222488447</v>
+      </c>
+      <c r="J63">
+        <v>-0.04929300261275476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08001354977752964</v>
+        <v>-0.05736639181313399</v>
       </c>
       <c r="C64">
-        <v>0.03689578778027363</v>
+        <v>0.02753126790630502</v>
       </c>
       <c r="D64">
-        <v>-0.0617346066708281</v>
+        <v>-0.03859260668198485</v>
       </c>
       <c r="E64">
-        <v>-0.06971957356677064</v>
+        <v>0.03934551655771147</v>
       </c>
       <c r="F64">
-        <v>-0.06850825790819438</v>
+        <v>0.06529578021085561</v>
       </c>
       <c r="G64">
-        <v>0.01325397679313252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05547962142693563</v>
+      </c>
+      <c r="H64">
+        <v>-0.002445417149337966</v>
+      </c>
+      <c r="I64">
+        <v>0.00758526832238049</v>
+      </c>
+      <c r="J64">
+        <v>-0.09075658385129971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01937841663484111</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.000595170568338261</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.008285264732198486</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.002035562433395905</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001184530749370675</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01907265773829289</v>
+      </c>
+      <c r="H65">
+        <v>0.003102095928734356</v>
+      </c>
+      <c r="I65">
+        <v>0.01103051848117007</v>
+      </c>
+      <c r="J65">
+        <v>-0.001420806218772036</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09664842982397387</v>
+        <v>-0.07127412918749836</v>
       </c>
       <c r="C66">
-        <v>0.01638243207882432</v>
+        <v>0.04777878162231832</v>
       </c>
       <c r="D66">
-        <v>-0.037068975062238</v>
+        <v>-0.01854230986757163</v>
       </c>
       <c r="E66">
-        <v>-0.07935327467158874</v>
+        <v>0.04175277579506622</v>
       </c>
       <c r="F66">
-        <v>-0.04152320070404329</v>
+        <v>0.07769879626945292</v>
       </c>
       <c r="G66">
-        <v>-0.0280383680541173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01361536760368196</v>
+      </c>
+      <c r="H66">
+        <v>0.00384042595506204</v>
+      </c>
+      <c r="I66">
+        <v>0.06625156154287289</v>
+      </c>
+      <c r="J66">
+        <v>-0.04763639909862847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.0636955953138145</v>
+        <v>-0.0437919584587867</v>
       </c>
       <c r="C67">
-        <v>-0.02043520124822324</v>
+        <v>-0.004058554283231654</v>
       </c>
       <c r="D67">
-        <v>-0.01118775909756841</v>
+        <v>0.00541763482405938</v>
       </c>
       <c r="E67">
-        <v>-0.02744872623257706</v>
+        <v>0.006590480042330447</v>
       </c>
       <c r="F67">
-        <v>-0.008175218690355049</v>
+        <v>0.04086473177514254</v>
       </c>
       <c r="G67">
-        <v>0.03637859826811399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03294554823476106</v>
+      </c>
+      <c r="H67">
+        <v>0.006402797609207434</v>
+      </c>
+      <c r="I67">
+        <v>0.04001589368379604</v>
+      </c>
+      <c r="J67">
+        <v>0.004994638544478708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.0004773517357756785</v>
+        <v>-0.03846628656650278</v>
       </c>
       <c r="C68">
-        <v>-0.2470252248060414</v>
+        <v>-0.1766546291777402</v>
       </c>
       <c r="D68">
-        <v>0.004172036878310583</v>
+        <v>0.1584088038655453</v>
       </c>
       <c r="E68">
-        <v>-0.02848434040085704</v>
+        <v>-0.003156970436918265</v>
       </c>
       <c r="F68">
-        <v>0.005310906421243697</v>
+        <v>0.04144947438143309</v>
       </c>
       <c r="G68">
-        <v>-0.009388510856486083</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.006418018577129187</v>
+      </c>
+      <c r="H68">
+        <v>0.005946783081191001</v>
+      </c>
+      <c r="I68">
+        <v>-0.172743012944139</v>
+      </c>
+      <c r="J68">
+        <v>-0.008571924338923564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06977044345078021</v>
+        <v>-0.07137844334324486</v>
       </c>
       <c r="C69">
-        <v>0.01005009376490805</v>
+        <v>0.01938145899174137</v>
       </c>
       <c r="D69">
-        <v>-0.02191410657773919</v>
+        <v>-0.006505702745761351</v>
       </c>
       <c r="E69">
-        <v>0.009343788762581826</v>
+        <v>0.02933566482690835</v>
       </c>
       <c r="F69">
-        <v>-0.0021810293571337</v>
+        <v>0.005391007895679414</v>
       </c>
       <c r="G69">
-        <v>-0.01416091914702733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02400468906393016</v>
+      </c>
+      <c r="H69">
+        <v>-0.03421332083630971</v>
+      </c>
+      <c r="I69">
+        <v>0.01648191527307049</v>
+      </c>
+      <c r="J69">
+        <v>-0.02741203776720919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.00311516229752848</v>
+        <v>-0.04215808951816434</v>
       </c>
       <c r="C71">
-        <v>-0.2720096154088376</v>
+        <v>-0.1873786277048736</v>
       </c>
       <c r="D71">
-        <v>0.00191652142405697</v>
+        <v>0.1768898643005246</v>
       </c>
       <c r="E71">
-        <v>-0.06174234378369892</v>
+        <v>-0.02425732323147633</v>
       </c>
       <c r="F71">
-        <v>-0.01247146192894356</v>
+        <v>0.06313243438579695</v>
       </c>
       <c r="G71">
-        <v>-0.06361025317461226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01595626904125208</v>
+      </c>
+      <c r="H71">
+        <v>0.02682354482011413</v>
+      </c>
+      <c r="I71">
+        <v>-0.1362344213746318</v>
+      </c>
+      <c r="J71">
+        <v>-0.0260251235543209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1167261887129922</v>
+        <v>-0.120651713629719</v>
       </c>
       <c r="C72">
-        <v>-0.01338130290071926</v>
+        <v>0.01360159720868653</v>
       </c>
       <c r="D72">
-        <v>-0.04736917064086719</v>
+        <v>-0.0002129169767535086</v>
       </c>
       <c r="E72">
-        <v>-0.09240345302405534</v>
+        <v>0.05361628900168178</v>
       </c>
       <c r="F72">
-        <v>0.0007222354688760719</v>
+        <v>0.08742689328518009</v>
       </c>
       <c r="G72">
-        <v>0.04654477565964593</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0486153004471266</v>
+      </c>
+      <c r="H72">
+        <v>-0.005994479582826056</v>
+      </c>
+      <c r="I72">
+        <v>0.03349834387712126</v>
+      </c>
+      <c r="J72">
+        <v>0.09561786388763394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2680592344056267</v>
+        <v>-0.2617292360686457</v>
       </c>
       <c r="C73">
-        <v>-0.1968777528267965</v>
+        <v>-0.03623475367239751</v>
       </c>
       <c r="D73">
-        <v>0.02228759722352886</v>
+        <v>0.1497316284120398</v>
       </c>
       <c r="E73">
-        <v>-0.3155501817377058</v>
+        <v>-0.02873855524994191</v>
       </c>
       <c r="F73">
-        <v>-0.07724605734018544</v>
+        <v>0.3080979030736115</v>
       </c>
       <c r="G73">
-        <v>-0.1968514171974692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1219940826314792</v>
+      </c>
+      <c r="H73">
+        <v>0.485893550040245</v>
+      </c>
+      <c r="I73">
+        <v>0.2796156501850521</v>
+      </c>
+      <c r="J73">
+        <v>0.1205670362576935</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1607199706954518</v>
+        <v>-0.1527548994676792</v>
       </c>
       <c r="C74">
-        <v>-0.008828553345180777</v>
+        <v>0.02506386352744446</v>
       </c>
       <c r="D74">
-        <v>-0.04216656502635979</v>
+        <v>-0.0001493523041996435</v>
       </c>
       <c r="E74">
-        <v>0.009908271210133194</v>
+        <v>0.04670280825635412</v>
       </c>
       <c r="F74">
-        <v>0.05199775659593123</v>
+        <v>-0.04580376198090323</v>
       </c>
       <c r="G74">
-        <v>-0.07116593782233434</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01382280247790632</v>
+      </c>
+      <c r="H74">
+        <v>0.03125293328381137</v>
+      </c>
+      <c r="I74">
+        <v>0.01280457621066265</v>
+      </c>
+      <c r="J74">
+        <v>-0.08357366678052515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2379677693861645</v>
+        <v>-0.2417569185646106</v>
       </c>
       <c r="C75">
-        <v>-0.01141762517438084</v>
+        <v>0.03375669918729027</v>
       </c>
       <c r="D75">
-        <v>-0.05795344337204034</v>
+        <v>0.01072977502387676</v>
       </c>
       <c r="E75">
-        <v>0.1303608218025928</v>
+        <v>0.09891130458839431</v>
       </c>
       <c r="F75">
-        <v>0.05963059006712836</v>
+        <v>-0.1382276667037684</v>
       </c>
       <c r="G75">
-        <v>-0.02219794651906986</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004180858233325363</v>
+      </c>
+      <c r="H75">
+        <v>0.01630441714496808</v>
+      </c>
+      <c r="I75">
+        <v>-0.07922401951046049</v>
+      </c>
+      <c r="J75">
+        <v>-0.0589329067394582</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2465624524917515</v>
+        <v>-0.2698635789631246</v>
       </c>
       <c r="C76">
-        <v>-0.01289709603128541</v>
+        <v>0.01043075950715829</v>
       </c>
       <c r="D76">
-        <v>-0.1006983501268251</v>
+        <v>-0.01864213579234742</v>
       </c>
       <c r="E76">
-        <v>0.1157577073401772</v>
+        <v>0.1315106174239286</v>
       </c>
       <c r="F76">
-        <v>0.08065716233936272</v>
+        <v>-0.1682663510329752</v>
       </c>
       <c r="G76">
-        <v>-0.04463931266555757</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04430484436163372</v>
+      </c>
+      <c r="H76">
+        <v>0.04670767907434275</v>
+      </c>
+      <c r="I76">
+        <v>0.003240051088951015</v>
+      </c>
+      <c r="J76">
+        <v>-0.08062070003759926</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1277647375857408</v>
+        <v>-0.1314525228294904</v>
       </c>
       <c r="C77">
-        <v>0.01361817209721851</v>
+        <v>0.04871511205199293</v>
       </c>
       <c r="D77">
-        <v>0.04763523503974929</v>
+        <v>-0.02465561509551404</v>
       </c>
       <c r="E77">
-        <v>-0.1636272181817994</v>
+        <v>-0.04248281764258232</v>
       </c>
       <c r="F77">
-        <v>-0.009210693871735783</v>
+        <v>0.1707812758891803</v>
       </c>
       <c r="G77">
-        <v>0.1357389122036233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02286735880562716</v>
+      </c>
+      <c r="H77">
+        <v>-0.2014769826513278</v>
+      </c>
+      <c r="I77">
+        <v>-0.1284738119393345</v>
+      </c>
+      <c r="J77">
+        <v>-0.1507868088891691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.0854059024749035</v>
+        <v>-0.0849861419007007</v>
       </c>
       <c r="C78">
-        <v>0.03358860385390508</v>
+        <v>0.04612974832139122</v>
       </c>
       <c r="D78">
-        <v>0.02021426019647451</v>
+        <v>-0.03875180062194702</v>
       </c>
       <c r="E78">
-        <v>-0.06635790172513288</v>
+        <v>-0.002519156527629271</v>
       </c>
       <c r="F78">
-        <v>-0.02107482907609952</v>
+        <v>0.08676250062485527</v>
       </c>
       <c r="G78">
-        <v>0.00720324966907129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.006264404377330226</v>
+      </c>
+      <c r="H78">
+        <v>-0.03863957006836364</v>
+      </c>
+      <c r="I78">
+        <v>-0.007805182537274193</v>
+      </c>
+      <c r="J78">
+        <v>-0.05485885118857993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.06588220081276784</v>
+        <v>-0.1480736875821003</v>
       </c>
       <c r="C80">
-        <v>0.005975341742146063</v>
+        <v>-0.6430043092018147</v>
       </c>
       <c r="D80">
-        <v>0.0124510251818118</v>
+        <v>-0.7300310298649487</v>
       </c>
       <c r="E80">
-        <v>-0.01476333949148068</v>
+        <v>-0.0645238517337665</v>
       </c>
       <c r="F80">
-        <v>0.07681877571921641</v>
+        <v>0.04380865490770129</v>
       </c>
       <c r="G80">
-        <v>0.82329080507701</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05755862859230938</v>
+      </c>
+      <c r="H80">
+        <v>0.04796291134334502</v>
+      </c>
+      <c r="I80">
+        <v>-0.01025209161071377</v>
+      </c>
+      <c r="J80">
+        <v>0.1041283171261327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1643144418858787</v>
+        <v>-0.1802190364175627</v>
       </c>
       <c r="C81">
-        <v>-0.005948829264089931</v>
+        <v>0.009791167207113208</v>
       </c>
       <c r="D81">
-        <v>-0.04483381944224073</v>
+        <v>0.002249083763773478</v>
       </c>
       <c r="E81">
-        <v>0.136529949178277</v>
+        <v>0.08523681529518923</v>
       </c>
       <c r="F81">
-        <v>0.1064977594695609</v>
+        <v>-0.1511630931903678</v>
       </c>
       <c r="G81">
-        <v>-0.02712693303588894</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02754553174950958</v>
+      </c>
+      <c r="H81">
+        <v>0.01525031110154938</v>
+      </c>
+      <c r="I81">
+        <v>-0.03784537309306225</v>
+      </c>
+      <c r="J81">
+        <v>-0.02693626706135231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09109762469256177</v>
+        <v>-0.0676976652191484</v>
       </c>
       <c r="C83">
-        <v>0.03937210445806126</v>
+        <v>0.04267709309777608</v>
       </c>
       <c r="D83">
-        <v>0.0922113763500344</v>
+        <v>-0.01427017597615482</v>
       </c>
       <c r="E83">
-        <v>-0.02988148440942648</v>
+        <v>-0.04246938563197567</v>
       </c>
       <c r="F83">
-        <v>-0.05276327279663759</v>
+        <v>0.05507687314350891</v>
       </c>
       <c r="G83">
-        <v>0.01278506051262544</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04502731895147749</v>
+      </c>
+      <c r="H83">
+        <v>-0.02679889189136522</v>
+      </c>
+      <c r="I83">
+        <v>0.0063141917910835</v>
+      </c>
+      <c r="J83">
+        <v>-0.08418123862733881</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2376767515732854</v>
+        <v>-0.2552806285866968</v>
       </c>
       <c r="C85">
-        <v>0.05085160572903928</v>
+        <v>0.04813501062693638</v>
       </c>
       <c r="D85">
-        <v>-0.05440396897559989</v>
+        <v>-0.02566861677059922</v>
       </c>
       <c r="E85">
-        <v>0.1408310488771326</v>
+        <v>0.08681264101319189</v>
       </c>
       <c r="F85">
-        <v>0.06334014693738819</v>
+        <v>-0.1675813149876825</v>
       </c>
       <c r="G85">
-        <v>0.009218820282588403</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.002957307857584278</v>
+      </c>
+      <c r="H85">
+        <v>-0.01451351822589618</v>
+      </c>
+      <c r="I85">
+        <v>-0.02706982802668258</v>
+      </c>
+      <c r="J85">
+        <v>-0.1091794581490903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04491050029863761</v>
+        <v>-0.0294953619419882</v>
       </c>
       <c r="C86">
-        <v>0.03995028466967266</v>
+        <v>0.03926921451149564</v>
       </c>
       <c r="D86">
-        <v>-0.009540436537544552</v>
+        <v>-0.03053430402655455</v>
       </c>
       <c r="E86">
-        <v>-0.0701595103883569</v>
+        <v>0.007275514680689239</v>
       </c>
       <c r="F86">
-        <v>-0.003711575659799999</v>
+        <v>0.07145974964060231</v>
       </c>
       <c r="G86">
-        <v>0.006120381285193825</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.001473319939016379</v>
+      </c>
+      <c r="H86">
+        <v>-0.06843183683907951</v>
+      </c>
+      <c r="I86">
+        <v>-0.01665619120210149</v>
+      </c>
+      <c r="J86">
+        <v>-0.06411552215331856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02554149174176886</v>
+        <v>-0.03764473878911784</v>
       </c>
       <c r="C87">
-        <v>-0.06102886356866013</v>
+        <v>-0.01447067071546593</v>
       </c>
       <c r="D87">
-        <v>-0.01950922423785578</v>
+        <v>0.02238440376432717</v>
       </c>
       <c r="E87">
-        <v>-0.06698367663940766</v>
+        <v>0.005445719117591345</v>
       </c>
       <c r="F87">
-        <v>-0.05536247626926359</v>
+        <v>0.1014819579190225</v>
       </c>
       <c r="G87">
-        <v>-0.1065687295907079</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02400154944490933</v>
+      </c>
+      <c r="H87">
+        <v>0.006727792222202173</v>
+      </c>
+      <c r="I87">
+        <v>0.02651091562805259</v>
+      </c>
+      <c r="J87">
+        <v>0.01784402145881286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03915155296979105</v>
+        <v>-0.02655359961678347</v>
       </c>
       <c r="C88">
-        <v>0.02876836353600333</v>
+        <v>0.009381692275938</v>
       </c>
       <c r="D88">
-        <v>-0.005185109222882204</v>
+        <v>-0.02269270212374323</v>
       </c>
       <c r="E88">
-        <v>0.004888786582504898</v>
+        <v>0.01334867951186529</v>
       </c>
       <c r="F88">
-        <v>0.005731030116584363</v>
+        <v>-0.005299782841834111</v>
       </c>
       <c r="G88">
-        <v>0.01492773034536148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03389659964931851</v>
+      </c>
+      <c r="H88">
+        <v>-0.03618919751080605</v>
+      </c>
+      <c r="I88">
+        <v>0.0403291237725765</v>
+      </c>
+      <c r="J88">
+        <v>-0.02455400299971958</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02207808005453285</v>
+        <v>-0.05068444395029704</v>
       </c>
       <c r="C89">
-        <v>-0.4208426951843647</v>
+        <v>-0.2866913188577935</v>
       </c>
       <c r="D89">
-        <v>0.09049550557090809</v>
+        <v>0.2801922886167162</v>
       </c>
       <c r="E89">
-        <v>0.02882529238331635</v>
+        <v>-0.04739161642642523</v>
       </c>
       <c r="F89">
-        <v>0.007433876713434732</v>
+        <v>0.0174486634948315</v>
       </c>
       <c r="G89">
-        <v>0.02958518477396548</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04173710528750101</v>
+      </c>
+      <c r="H89">
+        <v>-0.05329476194477452</v>
+      </c>
+      <c r="I89">
+        <v>-0.2715522910445691</v>
+      </c>
+      <c r="J89">
+        <v>-0.04849809556042096</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.01685908415515389</v>
+        <v>-0.03491584379369224</v>
       </c>
       <c r="C90">
-        <v>-0.3140761166230658</v>
+        <v>-0.2533216674207326</v>
       </c>
       <c r="D90">
-        <v>0.02848117248949174</v>
+        <v>0.223880156445736</v>
       </c>
       <c r="E90">
-        <v>-0.02523347879070675</v>
+        <v>-0.03126934798422896</v>
       </c>
       <c r="F90">
-        <v>-0.01021345784637488</v>
+        <v>0.03116499189081303</v>
       </c>
       <c r="G90">
-        <v>-0.03866910121464172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02548079039965597</v>
+      </c>
+      <c r="H90">
+        <v>-0.003005338102075178</v>
+      </c>
+      <c r="I90">
+        <v>-0.2176203120633068</v>
+      </c>
+      <c r="J90">
+        <v>-0.03400439976765999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2991058778582017</v>
+        <v>-0.3123248545533648</v>
       </c>
       <c r="C91">
-        <v>0.02373414808292135</v>
+        <v>0.04141904377922406</v>
       </c>
       <c r="D91">
-        <v>-0.05473110311960089</v>
+        <v>-0.0114356451741501</v>
       </c>
       <c r="E91">
-        <v>0.278325797804346</v>
+        <v>0.09857982404153073</v>
       </c>
       <c r="F91">
-        <v>0.1764548865922774</v>
+        <v>-0.2902220188558077</v>
       </c>
       <c r="G91">
-        <v>0.09744652725591585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.04468982862576019</v>
+      </c>
+      <c r="H91">
+        <v>0.02137298038006999</v>
+      </c>
+      <c r="I91">
+        <v>-0.08886184584625872</v>
+      </c>
+      <c r="J91">
+        <v>-0.1376137704247884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.01100661896543322</v>
+        <v>-0.08705155611344849</v>
       </c>
       <c r="C92">
-        <v>-0.4249518383439889</v>
+        <v>-0.3460636735931463</v>
       </c>
       <c r="D92">
-        <v>0.1977790295499576</v>
+        <v>0.2774216436088913</v>
       </c>
       <c r="E92">
-        <v>0.1312233971913277</v>
+        <v>-0.06532264584222208</v>
       </c>
       <c r="F92">
-        <v>0.08076101168432158</v>
+        <v>-0.1345448568141635</v>
       </c>
       <c r="G92">
-        <v>0.2324867400966013</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.06170578370657596</v>
+      </c>
+      <c r="H92">
+        <v>-0.4301560860636356</v>
+      </c>
+      <c r="I92">
+        <v>0.7439704321313068</v>
+      </c>
+      <c r="J92">
+        <v>-0.05126651120745679</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.02764902423422701</v>
+        <v>-0.03530728774670342</v>
       </c>
       <c r="C93">
-        <v>-0.3706650986234686</v>
+        <v>-0.2986146602632254</v>
       </c>
       <c r="D93">
-        <v>0.07046792826565076</v>
+        <v>0.2835980748409122</v>
       </c>
       <c r="E93">
-        <v>0.04610498557628242</v>
+        <v>-0.06091770864022196</v>
       </c>
       <c r="F93">
-        <v>0.02538720937714014</v>
+        <v>-0.02040534310268701</v>
       </c>
       <c r="G93">
-        <v>0.06119989171408072</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03336678577093501</v>
+      </c>
+      <c r="H93">
+        <v>0.006984491851062828</v>
+      </c>
+      <c r="I93">
+        <v>-0.1896298322826698</v>
+      </c>
+      <c r="J93">
+        <v>-0.02428171007282406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2892490768242197</v>
+        <v>-0.3154352362767954</v>
       </c>
       <c r="C94">
-        <v>-0.03361429814931952</v>
+        <v>0.02464025563218636</v>
       </c>
       <c r="D94">
-        <v>-0.002993842145913169</v>
+        <v>0.03802955246812878</v>
       </c>
       <c r="E94">
-        <v>0.3616761698833832</v>
+        <v>0.1386569020936635</v>
       </c>
       <c r="F94">
-        <v>0.4032481703308781</v>
+        <v>-0.3588425591807647</v>
       </c>
       <c r="G94">
-        <v>-0.120788913848398</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1822132259671168</v>
+      </c>
+      <c r="H94">
+        <v>-0.1167069224293825</v>
+      </c>
+      <c r="I94">
+        <v>-0.06407641335750489</v>
+      </c>
+      <c r="J94">
+        <v>0.1968199208264169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.2027902180192106</v>
+        <v>-0.132835712068963</v>
       </c>
       <c r="C95">
-        <v>-0.03397330761414398</v>
+        <v>0.1028753282618809</v>
       </c>
       <c r="D95">
-        <v>0.001526018873822299</v>
+        <v>0.04831406928590677</v>
       </c>
       <c r="E95">
-        <v>0.4321844300160831</v>
+        <v>0.02810199092836861</v>
       </c>
       <c r="F95">
-        <v>-0.8327283029712321</v>
+        <v>-0.05414623776149885</v>
       </c>
       <c r="G95">
-        <v>0.0767947440181776</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.922189727023799</v>
+      </c>
+      <c r="H95">
+        <v>0.08072662286732342</v>
+      </c>
+      <c r="I95">
+        <v>-0.01076259877543235</v>
+      </c>
+      <c r="J95">
+        <v>0.2571385644742611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2142054541154936</v>
+        <v>-0.2006800104545497</v>
       </c>
       <c r="C98">
-        <v>-0.1382808084311578</v>
+        <v>-0.02470213402311158</v>
       </c>
       <c r="D98">
-        <v>0.03340858093467652</v>
+        <v>0.1033696386059833</v>
       </c>
       <c r="E98">
-        <v>-0.1012504190936458</v>
+        <v>-0.0260388907452919</v>
       </c>
       <c r="F98">
-        <v>-0.03823429186024024</v>
+        <v>0.1555076519660746</v>
       </c>
       <c r="G98">
-        <v>-0.1795746119637145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06474164422579114</v>
+      </c>
+      <c r="H98">
+        <v>0.3433981199364334</v>
+      </c>
+      <c r="I98">
+        <v>0.1354414044586667</v>
+      </c>
+      <c r="J98">
+        <v>0.08628617120124218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02136273008229878</v>
+        <v>-0.0159150559554653</v>
       </c>
       <c r="C101">
-        <v>0.01619305169761688</v>
+        <v>0.02035998939471856</v>
       </c>
       <c r="D101">
-        <v>-0.02299952144262706</v>
+        <v>-0.02321408547937042</v>
       </c>
       <c r="E101">
-        <v>-0.02676094920635289</v>
+        <v>0.02948018921029131</v>
       </c>
       <c r="F101">
-        <v>-0.009863542281580501</v>
+        <v>0.06783514344648731</v>
       </c>
       <c r="G101">
-        <v>-0.002335206714169932</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.002528893859055605</v>
+      </c>
+      <c r="H101">
+        <v>-0.1150477402086835</v>
+      </c>
+      <c r="I101">
+        <v>0.005399242383148584</v>
+      </c>
+      <c r="J101">
+        <v>0.1180642387730637</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1187047781735397</v>
+        <v>-0.1215018536966855</v>
       </c>
       <c r="C102">
-        <v>0.01164139258256166</v>
+        <v>0.01967758758629264</v>
       </c>
       <c r="D102">
-        <v>-0.03771508658979834</v>
+        <v>-0.0164111465550926</v>
       </c>
       <c r="E102">
-        <v>0.09021192348533302</v>
+        <v>0.05466417229765615</v>
       </c>
       <c r="F102">
-        <v>0.004837703131207621</v>
+        <v>-0.09245609315234611</v>
       </c>
       <c r="G102">
-        <v>0.003507088088079998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03001508971814543</v>
+      </c>
+      <c r="H102">
+        <v>0.01716534119010807</v>
+      </c>
+      <c r="I102">
+        <v>-0.03985055690288348</v>
+      </c>
+      <c r="J102">
+        <v>-0.0490640822403068</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.0171440969653041</v>
+        <v>-0.03110241421538497</v>
       </c>
       <c r="C103">
-        <v>0.001014806089941265</v>
+        <v>0.0009595858139928027</v>
       </c>
       <c r="D103">
-        <v>-0.01044577367398018</v>
+        <v>-0.009618891524946591</v>
       </c>
       <c r="E103">
-        <v>0.02249706089865922</v>
+        <v>0.02012958194895536</v>
       </c>
       <c r="F103">
-        <v>0.008345552036810568</v>
+        <v>-0.01975405834131415</v>
       </c>
       <c r="G103">
-        <v>-0.01822285396432652</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01577847843793054</v>
+      </c>
+      <c r="H103">
+        <v>-0.01572203605721336</v>
+      </c>
+      <c r="I103">
+        <v>-0.02145195489841049</v>
+      </c>
+      <c r="J103">
+        <v>-0.02119562363569432</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
